--- a/piatek.xlsx
+++ b/piatek.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,57 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>Kolumna2</t>
+  </si>
+  <si>
+    <t>Kolumna3</t>
+  </si>
+  <si>
+    <t>Kolumna4</t>
+  </si>
+  <si>
+    <t>Kolumna5</t>
+  </si>
+  <si>
+    <t>Kolumna6</t>
+  </si>
+  <si>
+    <t>Kolumna7</t>
+  </si>
+  <si>
+    <t>Kolumna8</t>
+  </si>
+  <si>
+    <t>Kolumna9</t>
+  </si>
+  <si>
+    <t>Kolumna10</t>
+  </si>
+  <si>
+    <t>dcsjj</t>
+  </si>
+  <si>
+    <t>bcsj</t>
+  </si>
+  <si>
+    <t>dhsjvgc</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,17 +94,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:K17" totalsRowShown="0">
+  <autoFilter ref="B2:K17"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Kolumna1"/>
+    <tableColumn id="2" name="Kolumna2"/>
+    <tableColumn id="3" name="Kolumna3"/>
+    <tableColumn id="4" name="Kolumna4"/>
+    <tableColumn id="5" name="Kolumna5"/>
+    <tableColumn id="6" name="Kolumna6"/>
+    <tableColumn id="7" name="Kolumna7"/>
+    <tableColumn id="8" name="Kolumna8"/>
+    <tableColumn id="9" name="Kolumna9"/>
+    <tableColumn id="10" name="Kolumna10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +166,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +411,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
